--- a/UML/DTOs.xlsx
+++ b/UML/DTOs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE9843D-8677-4E0A-99EA-DF63CD552400}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419EE1C3-91BC-4C52-8AE0-75F8538B998F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
   <si>
     <t>Mindfight</t>
   </si>
@@ -95,6 +95,81 @@
   </si>
   <si>
     <t>GamePoints</t>
+  </si>
+  <si>
+    <t>MindfightResult</t>
+  </si>
+  <si>
+    <t>EarnedPoints</t>
+  </si>
+  <si>
+    <t>MindfightTitle</t>
+  </si>
+  <si>
+    <t>CreationTime</t>
+  </si>
+  <si>
+    <t>TeamAnswer</t>
+  </si>
+  <si>
+    <t>QuestionOrderNumber</t>
+  </si>
+  <si>
+    <t>QuestionTitle</t>
+  </si>
+  <si>
+    <t>EnteredAnswer</t>
+  </si>
+  <si>
+    <t>ElapsedTimeInSeconds</t>
+  </si>
+  <si>
+    <t>IsEvaluated</t>
+  </si>
+  <si>
+    <t>EvaluatorComment</t>
+  </si>
+  <si>
+    <t>TeamId</t>
+  </si>
+  <si>
+    <t>QuestionId</t>
+  </si>
+  <si>
+    <t>EvaluateDTO</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>MindfightQuestion</t>
+  </si>
+  <si>
+    <t>QuestionType</t>
+  </si>
+  <si>
+    <t>TimeToAnswerInSeconds</t>
+  </si>
+  <si>
+    <t>OrderNumber</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>AttachmentLocation</t>
+  </si>
+  <si>
+    <t>QuestionAnswer</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>IsCorrect</t>
+  </si>
+  <si>
+    <t>QuestionCount</t>
   </si>
 </sst>
 </file>
@@ -421,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E48" activeCellId="1" sqref="E47 E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +512,7 @@
     <col min="7" max="7" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
@@ -447,171 +522,392 @@
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>0</v>
       </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>1</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D38" t="s">
         <v>1</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
         <v>2</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D39" t="s">
         <v>2</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E39" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
         <v>3</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D40" t="s">
         <v>3</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E40" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
         <v>6</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D41" t="s">
         <v>4</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E41" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
         <v>5</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
         <v>11</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E43" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
         <v>13</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E44" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
         <v>8</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E45" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>47</v>
+      </c>
+      <c r="E61" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
